--- a/srcript/reg_tab/csr_excel/register/asic/flex_packet_editor.xlsx
+++ b/srcript/reg_tab/csr_excel/register/asic/flex_packet_editor.xlsx
@@ -1,21 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20228"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\项目文档\ES90\SVN\es90_svn\trunk\design_doc\module_design\CSR\csr_excel\register\asic\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\FWD_SW\trunk\FWD\sdk\sf_sdk\sdk\tools\srcript\reg_tab\csr_excel\register\asic\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{5B0387F7-1213-4C15-A8ED-14CE58F7ED95}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="20385" windowHeight="9555" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="9555"/>
   </bookViews>
   <sheets>
     <sheet name="flex_packet_editor" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="5" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="6" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
@@ -747,11 +744,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="000000"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1006,31 +1003,52 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1040,34 +1058,13 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="差" xfId="1" builtinId="27"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="常规 2" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
@@ -1158,23 +1155,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1210,23 +1190,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1402,7 +1365,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -1412,7 +1375,7 @@
       <selection activeCell="D73" sqref="D73"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
   <cols>
     <col min="1" max="1" width="27" style="4" customWidth="1"/>
     <col min="2" max="2" width="17.125" style="4" customWidth="1"/>
@@ -1424,7 +1387,7 @@
     <col min="9" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8">
       <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
@@ -1438,7 +1401,7 @@
       <c r="G2" s="6"/>
       <c r="H2" s="7"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8">
       <c r="A3" s="6" t="s">
         <v>1</v>
       </c>
@@ -1464,14 +1427,14 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:8" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="45" t="s">
+    <row r="4" spans="1:8" s="1" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A4" s="39" t="s">
         <v>35</v>
       </c>
       <c r="B4" s="26" t="s">
         <v>155</v>
       </c>
-      <c r="C4" s="45" t="s">
+      <c r="C4" s="39" t="s">
         <v>60</v>
       </c>
       <c r="D4" s="10" t="s">
@@ -1483,17 +1446,17 @@
       <c r="F4" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="G4" s="48" t="s">
+      <c r="G4" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H4" s="10" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="5" spans="1:8" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="46"/>
+    <row r="5" spans="1:8" s="1" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A5" s="40"/>
       <c r="B5" s="35"/>
-      <c r="C5" s="46"/>
+      <c r="C5" s="40"/>
       <c r="D5" s="10" t="s">
         <v>121</v>
       </c>
@@ -1503,15 +1466,15 @@
       <c r="F5" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="49"/>
+      <c r="G5" s="56"/>
       <c r="H5" s="32" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="6" spans="1:8" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="46"/>
+    <row r="6" spans="1:8" s="1" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A6" s="40"/>
       <c r="B6" s="35"/>
-      <c r="C6" s="46"/>
+      <c r="C6" s="40"/>
       <c r="D6" s="10" t="s">
         <v>120</v>
       </c>
@@ -1521,15 +1484,15 @@
       <c r="F6" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="49"/>
+      <c r="G6" s="56"/>
       <c r="H6" s="32" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="7" spans="1:8" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="46"/>
+    <row r="7" spans="1:8" s="1" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A7" s="40"/>
       <c r="B7" s="35"/>
-      <c r="C7" s="46"/>
+      <c r="C7" s="40"/>
       <c r="D7" s="10" t="s">
         <v>119</v>
       </c>
@@ -1539,15 +1502,15 @@
       <c r="F7" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="49"/>
+      <c r="G7" s="56"/>
       <c r="H7" s="32" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="8" spans="1:8" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="46"/>
+    <row r="8" spans="1:8" s="1" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A8" s="40"/>
       <c r="B8" s="35"/>
-      <c r="C8" s="46"/>
+      <c r="C8" s="40"/>
       <c r="D8" s="10" t="s">
         <v>118</v>
       </c>
@@ -1557,15 +1520,15 @@
       <c r="F8" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="49"/>
+      <c r="G8" s="56"/>
       <c r="H8" s="32" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="9" spans="1:8" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="46"/>
+    <row r="9" spans="1:8" s="1" customFormat="1" ht="17.25" customHeight="1">
+      <c r="A9" s="40"/>
       <c r="B9" s="28"/>
-      <c r="C9" s="46"/>
+      <c r="C9" s="40"/>
       <c r="D9" s="10" t="s">
         <v>117</v>
       </c>
@@ -1575,15 +1538,15 @@
       <c r="F9" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="G9" s="49"/>
+      <c r="G9" s="56"/>
       <c r="H9" s="32" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="10" spans="1:8" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="46"/>
+    <row r="10" spans="1:8" s="1" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A10" s="40"/>
       <c r="B10" s="28"/>
-      <c r="C10" s="46"/>
+      <c r="C10" s="40"/>
       <c r="D10" s="10" t="s">
         <v>74</v>
       </c>
@@ -1593,15 +1556,15 @@
       <c r="F10" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="G10" s="49"/>
+      <c r="G10" s="56"/>
       <c r="H10" s="32" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="11" spans="1:8" s="1" customFormat="1" ht="48.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="47"/>
+    <row r="11" spans="1:8" s="1" customFormat="1" ht="48.75" customHeight="1" outlineLevel="1">
+      <c r="A11" s="41"/>
       <c r="B11" s="26"/>
-      <c r="C11" s="47"/>
+      <c r="C11" s="41"/>
       <c r="D11" s="10" t="s">
         <v>42</v>
       </c>
@@ -1611,13 +1574,13 @@
       <c r="F11" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="G11" s="50"/>
+      <c r="G11" s="57"/>
       <c r="H11" s="32" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="12" spans="1:8" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="45" t="s">
+    <row r="12" spans="1:8" s="1" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A12" s="39" t="s">
         <v>38</v>
       </c>
       <c r="B12" s="26" t="s">
@@ -1635,15 +1598,15 @@
       <c r="F12" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="G12" s="45" t="s">
+      <c r="G12" s="39" t="s">
         <v>16</v>
       </c>
       <c r="H12" s="10" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:8" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="46"/>
+    <row r="13" spans="1:8" s="1" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A13" s="40"/>
       <c r="B13" s="35"/>
       <c r="C13" s="35"/>
       <c r="D13" s="10" t="s">
@@ -1655,13 +1618,13 @@
       <c r="F13" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="G13" s="46"/>
+      <c r="G13" s="40"/>
       <c r="H13" s="32" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:8" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="46"/>
+    <row r="14" spans="1:8" s="1" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A14" s="40"/>
       <c r="B14" s="35"/>
       <c r="C14" s="35"/>
       <c r="D14" s="10" t="s">
@@ -1673,13 +1636,13 @@
       <c r="F14" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="G14" s="46"/>
+      <c r="G14" s="40"/>
       <c r="H14" s="32" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:8" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="46"/>
+    <row r="15" spans="1:8" s="1" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A15" s="40"/>
       <c r="B15" s="35"/>
       <c r="C15" s="35"/>
       <c r="D15" s="10" t="s">
@@ -1691,13 +1654,13 @@
       <c r="F15" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="G15" s="46"/>
+      <c r="G15" s="40"/>
       <c r="H15" s="32" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="1:8" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="46"/>
+    <row r="16" spans="1:8" s="1" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A16" s="40"/>
       <c r="B16" s="35"/>
       <c r="C16" s="35"/>
       <c r="D16" s="10" t="s">
@@ -1709,13 +1672,13 @@
       <c r="F16" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="G16" s="46"/>
+      <c r="G16" s="40"/>
       <c r="H16" s="32" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="17" spans="1:8" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="46"/>
+    <row r="17" spans="1:8" s="1" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A17" s="40"/>
       <c r="B17" s="28"/>
       <c r="C17" s="28"/>
       <c r="D17" s="10" t="s">
@@ -1727,13 +1690,13 @@
       <c r="F17" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="G17" s="46"/>
+      <c r="G17" s="40"/>
       <c r="H17" s="32" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="1:8" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="46"/>
+    <row r="18" spans="1:8" s="1" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A18" s="40"/>
       <c r="B18" s="28"/>
       <c r="C18" s="28"/>
       <c r="D18" s="10" t="s">
@@ -1745,13 +1708,13 @@
       <c r="F18" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="G18" s="46"/>
+      <c r="G18" s="40"/>
       <c r="H18" s="32" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="19" spans="1:8" s="1" customFormat="1" ht="48" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="47"/>
+    <row r="19" spans="1:8" s="1" customFormat="1" ht="48" customHeight="1" outlineLevel="1">
+      <c r="A19" s="41"/>
       <c r="B19" s="26"/>
       <c r="C19" s="26"/>
       <c r="D19" s="10" t="s">
@@ -1763,13 +1726,13 @@
       <c r="F19" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="G19" s="47"/>
+      <c r="G19" s="41"/>
       <c r="H19" s="32" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="20" spans="1:8" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="45" t="s">
+    <row r="20" spans="1:8" s="1" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A20" s="39" t="s">
         <v>39</v>
       </c>
       <c r="B20" s="26" t="s">
@@ -1787,15 +1750,15 @@
       <c r="F20" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="G20" s="45" t="s">
+      <c r="G20" s="39" t="s">
         <v>16</v>
       </c>
       <c r="H20" s="10" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:8" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="46"/>
+    <row r="21" spans="1:8" s="1" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A21" s="40"/>
       <c r="B21" s="35"/>
       <c r="C21" s="35"/>
       <c r="D21" s="10" t="s">
@@ -1807,13 +1770,13 @@
       <c r="F21" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="G21" s="46"/>
+      <c r="G21" s="40"/>
       <c r="H21" s="32" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="22" spans="1:8" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="46"/>
+    <row r="22" spans="1:8" s="1" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A22" s="40"/>
       <c r="B22" s="35"/>
       <c r="C22" s="35"/>
       <c r="D22" s="10" t="s">
@@ -1825,13 +1788,13 @@
       <c r="F22" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="G22" s="46"/>
+      <c r="G22" s="40"/>
       <c r="H22" s="32" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="23" spans="1:8" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="46"/>
+    <row r="23" spans="1:8" s="1" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A23" s="40"/>
       <c r="B23" s="35"/>
       <c r="C23" s="35"/>
       <c r="D23" s="10" t="s">
@@ -1843,13 +1806,13 @@
       <c r="F23" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="G23" s="46"/>
+      <c r="G23" s="40"/>
       <c r="H23" s="32" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="24" spans="1:8" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="46"/>
+    <row r="24" spans="1:8" s="1" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A24" s="40"/>
       <c r="B24" s="35"/>
       <c r="C24" s="35"/>
       <c r="D24" s="10" t="s">
@@ -1861,13 +1824,13 @@
       <c r="F24" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="G24" s="46"/>
+      <c r="G24" s="40"/>
       <c r="H24" s="32" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="25" spans="1:8" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="46"/>
+    <row r="25" spans="1:8" s="1" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A25" s="40"/>
       <c r="B25" s="28"/>
       <c r="C25" s="28"/>
       <c r="D25" s="10" t="s">
@@ -1879,13 +1842,13 @@
       <c r="F25" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="G25" s="46"/>
+      <c r="G25" s="40"/>
       <c r="H25" s="32" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="26" spans="1:8" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="46"/>
+    <row r="26" spans="1:8" s="1" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A26" s="40"/>
       <c r="B26" s="28"/>
       <c r="C26" s="28"/>
       <c r="D26" s="10" t="s">
@@ -1897,13 +1860,13 @@
       <c r="F26" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="G26" s="46"/>
+      <c r="G26" s="40"/>
       <c r="H26" s="32" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="27" spans="1:8" s="1" customFormat="1" ht="50.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="47"/>
+    <row r="27" spans="1:8" s="1" customFormat="1" ht="50.25" customHeight="1" outlineLevel="1">
+      <c r="A27" s="41"/>
       <c r="B27" s="29"/>
       <c r="C27" s="26"/>
       <c r="D27" s="10" t="s">
@@ -1915,19 +1878,19 @@
       <c r="F27" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="G27" s="47"/>
+      <c r="G27" s="41"/>
       <c r="H27" s="32" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="28" spans="1:8" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="45" t="s">
+    <row r="28" spans="1:8" s="1" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A28" s="39" t="s">
         <v>40</v>
       </c>
       <c r="B28" s="9" t="s">
         <v>158</v>
       </c>
-      <c r="C28" s="45" t="s">
+      <c r="C28" s="39" t="s">
         <v>9</v>
       </c>
       <c r="D28" s="10" t="s">
@@ -1939,17 +1902,17 @@
       <c r="F28" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="G28" s="48" t="s">
+      <c r="G28" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H28" s="10" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:8" s="1" customFormat="1" ht="19.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="46"/>
+    <row r="29" spans="1:8" s="1" customFormat="1" ht="19.5" customHeight="1" outlineLevel="1">
+      <c r="A29" s="40"/>
       <c r="B29" s="28"/>
-      <c r="C29" s="46"/>
+      <c r="C29" s="40"/>
       <c r="D29" s="10" t="s">
         <v>91</v>
       </c>
@@ -1959,15 +1922,15 @@
       <c r="F29" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="G29" s="49"/>
+      <c r="G29" s="56"/>
       <c r="H29" s="10" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="30" spans="1:8" s="1" customFormat="1" ht="19.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="46"/>
+    <row r="30" spans="1:8" s="1" customFormat="1" ht="19.5" customHeight="1" outlineLevel="1">
+      <c r="A30" s="40"/>
       <c r="B30" s="28"/>
-      <c r="C30" s="46"/>
+      <c r="C30" s="40"/>
       <c r="D30" s="10" t="s">
         <v>90</v>
       </c>
@@ -1977,15 +1940,15 @@
       <c r="F30" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="G30" s="49"/>
+      <c r="G30" s="56"/>
       <c r="H30" s="10" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="31" spans="1:8" s="1" customFormat="1" ht="19.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="46"/>
+    <row r="31" spans="1:8" s="1" customFormat="1" ht="19.5" customHeight="1" outlineLevel="1">
+      <c r="A31" s="40"/>
       <c r="B31" s="35"/>
-      <c r="C31" s="46"/>
+      <c r="C31" s="40"/>
       <c r="D31" s="10" t="s">
         <v>152</v>
       </c>
@@ -1995,15 +1958,15 @@
       <c r="F31" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="G31" s="49"/>
+      <c r="G31" s="56"/>
       <c r="H31" s="32" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="32" spans="1:8" s="1" customFormat="1" ht="19.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="46"/>
+    <row r="32" spans="1:8" s="1" customFormat="1" ht="19.5" customHeight="1" outlineLevel="1">
+      <c r="A32" s="40"/>
       <c r="B32" s="35"/>
-      <c r="C32" s="46"/>
+      <c r="C32" s="40"/>
       <c r="D32" s="10" t="s">
         <v>140</v>
       </c>
@@ -2013,15 +1976,15 @@
       <c r="F32" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="G32" s="49"/>
+      <c r="G32" s="56"/>
       <c r="H32" s="32" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="33" spans="1:8" s="1" customFormat="1" ht="19.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="46"/>
+    <row r="33" spans="1:8" s="1" customFormat="1" ht="19.5" customHeight="1" outlineLevel="1">
+      <c r="A33" s="40"/>
       <c r="B33" s="35"/>
-      <c r="C33" s="46"/>
+      <c r="C33" s="40"/>
       <c r="D33" s="10" t="s">
         <v>141</v>
       </c>
@@ -2031,15 +1994,15 @@
       <c r="F33" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="G33" s="49"/>
+      <c r="G33" s="56"/>
       <c r="H33" s="32" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="34" spans="1:8" s="1" customFormat="1" ht="19.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="46"/>
+    <row r="34" spans="1:8" s="1" customFormat="1" ht="19.5" customHeight="1" outlineLevel="1">
+      <c r="A34" s="40"/>
       <c r="B34" s="35"/>
-      <c r="C34" s="46"/>
+      <c r="C34" s="40"/>
       <c r="D34" s="10" t="s">
         <v>142</v>
       </c>
@@ -2049,15 +2012,15 @@
       <c r="F34" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="G34" s="49"/>
+      <c r="G34" s="56"/>
       <c r="H34" s="32" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="35" spans="1:8" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="46"/>
+    <row r="35" spans="1:8" s="1" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A35" s="40"/>
       <c r="B35" s="28"/>
-      <c r="C35" s="46"/>
+      <c r="C35" s="40"/>
       <c r="D35" s="10" t="s">
         <v>147</v>
       </c>
@@ -2067,15 +2030,15 @@
       <c r="F35" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="G35" s="49"/>
+      <c r="G35" s="56"/>
       <c r="H35" s="32" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="36" spans="1:8" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="46"/>
+    <row r="36" spans="1:8" s="1" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A36" s="40"/>
       <c r="B36" s="28"/>
-      <c r="C36" s="46"/>
+      <c r="C36" s="40"/>
       <c r="D36" s="10" t="s">
         <v>84</v>
       </c>
@@ -2085,15 +2048,15 @@
       <c r="F36" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="G36" s="49"/>
+      <c r="G36" s="56"/>
       <c r="H36" s="32" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="37" spans="1:8" s="1" customFormat="1" ht="44.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="47"/>
+    <row r="37" spans="1:8" s="1" customFormat="1" ht="44.25" customHeight="1" outlineLevel="1">
+      <c r="A37" s="41"/>
       <c r="B37" s="9"/>
-      <c r="C37" s="47"/>
+      <c r="C37" s="41"/>
       <c r="D37" s="10" t="s">
         <v>45</v>
       </c>
@@ -2103,13 +2066,13 @@
       <c r="F37" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="G37" s="50"/>
+      <c r="G37" s="57"/>
       <c r="H37" s="32" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="38" spans="1:8" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="45" t="s">
+    <row r="38" spans="1:8" s="1" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A38" s="39" t="s">
         <v>36</v>
       </c>
       <c r="B38" s="9" t="s">
@@ -2127,15 +2090,15 @@
       <c r="F38" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="G38" s="45" t="s">
+      <c r="G38" s="39" t="s">
         <v>16</v>
       </c>
       <c r="H38" s="10" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="39" spans="1:8" s="1" customFormat="1" ht="19.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="46"/>
+    <row r="39" spans="1:8" s="1" customFormat="1" ht="19.5" customHeight="1" outlineLevel="1">
+      <c r="A39" s="40"/>
       <c r="B39" s="28"/>
       <c r="C39" s="28"/>
       <c r="D39" s="10" t="s">
@@ -2147,13 +2110,13 @@
       <c r="F39" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="G39" s="46"/>
+      <c r="G39" s="40"/>
       <c r="H39" s="10" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="40" spans="1:8" s="1" customFormat="1" ht="19.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="46"/>
+    <row r="40" spans="1:8" s="1" customFormat="1" ht="19.5" customHeight="1" outlineLevel="1">
+      <c r="A40" s="40"/>
       <c r="B40" s="28"/>
       <c r="C40" s="28"/>
       <c r="D40" s="10" t="s">
@@ -2165,13 +2128,13 @@
       <c r="F40" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="G40" s="46"/>
+      <c r="G40" s="40"/>
       <c r="H40" s="10" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="41" spans="1:8" s="1" customFormat="1" ht="19.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="46"/>
+    <row r="41" spans="1:8" s="1" customFormat="1" ht="19.5" customHeight="1" outlineLevel="1">
+      <c r="A41" s="40"/>
       <c r="B41" s="35"/>
       <c r="C41" s="35"/>
       <c r="D41" s="10" t="s">
@@ -2183,13 +2146,13 @@
       <c r="F41" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="G41" s="46"/>
+      <c r="G41" s="40"/>
       <c r="H41" s="32" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="42" spans="1:8" s="1" customFormat="1" ht="19.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="46"/>
+    <row r="42" spans="1:8" s="1" customFormat="1" ht="19.5" customHeight="1" outlineLevel="1">
+      <c r="A42" s="40"/>
       <c r="B42" s="35"/>
       <c r="C42" s="35"/>
       <c r="D42" s="10" t="s">
@@ -2201,13 +2164,13 @@
       <c r="F42" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="G42" s="46"/>
+      <c r="G42" s="40"/>
       <c r="H42" s="32" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="43" spans="1:8" s="1" customFormat="1" ht="19.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="46"/>
+    <row r="43" spans="1:8" s="1" customFormat="1" ht="19.5" customHeight="1" outlineLevel="1">
+      <c r="A43" s="40"/>
       <c r="B43" s="35"/>
       <c r="C43" s="35"/>
       <c r="D43" s="10" t="s">
@@ -2219,13 +2182,13 @@
       <c r="F43" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="G43" s="46"/>
+      <c r="G43" s="40"/>
       <c r="H43" s="32" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="44" spans="1:8" s="1" customFormat="1" ht="19.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="46"/>
+    <row r="44" spans="1:8" s="1" customFormat="1" ht="19.5" customHeight="1" outlineLevel="1">
+      <c r="A44" s="40"/>
       <c r="B44" s="35"/>
       <c r="C44" s="35"/>
       <c r="D44" s="10" t="s">
@@ -2237,13 +2200,13 @@
       <c r="F44" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="G44" s="46"/>
+      <c r="G44" s="40"/>
       <c r="H44" s="32" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="45" spans="1:8" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="46"/>
+    <row r="45" spans="1:8" s="1" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A45" s="40"/>
       <c r="B45" s="28"/>
       <c r="C45" s="28"/>
       <c r="D45" s="10" t="s">
@@ -2255,13 +2218,13 @@
       <c r="F45" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="G45" s="46"/>
+      <c r="G45" s="40"/>
       <c r="H45" s="32" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="46" spans="1:8" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="46"/>
+    <row r="46" spans="1:8" s="1" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A46" s="40"/>
       <c r="B46" s="28"/>
       <c r="C46" s="28"/>
       <c r="D46" s="10" t="s">
@@ -2273,13 +2236,13 @@
       <c r="F46" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="G46" s="46"/>
+      <c r="G46" s="40"/>
       <c r="H46" s="32" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="47" spans="1:8" s="1" customFormat="1" ht="45.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="47"/>
+    <row r="47" spans="1:8" s="1" customFormat="1" ht="45.75" customHeight="1" outlineLevel="1">
+      <c r="A47" s="41"/>
       <c r="B47" s="9"/>
       <c r="C47" s="9"/>
       <c r="D47" s="10" t="s">
@@ -2291,13 +2254,13 @@
       <c r="F47" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="G47" s="47"/>
+      <c r="G47" s="41"/>
       <c r="H47" s="32" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="48" spans="1:8" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="45" t="s">
+    <row r="48" spans="1:8" s="1" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A48" s="39" t="s">
         <v>37</v>
       </c>
       <c r="B48" s="9" t="s">
@@ -2322,8 +2285,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="49" spans="1:8" s="1" customFormat="1" ht="19.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="46"/>
+    <row r="49" spans="1:8" s="1" customFormat="1" ht="19.5" customHeight="1" outlineLevel="1">
+      <c r="A49" s="40"/>
       <c r="B49" s="28"/>
       <c r="C49" s="28"/>
       <c r="D49" s="10" t="s">
@@ -2340,8 +2303,8 @@
         <v>94</v>
       </c>
     </row>
-    <row r="50" spans="1:8" s="1" customFormat="1" ht="19.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="46"/>
+    <row r="50" spans="1:8" s="1" customFormat="1" ht="19.5" customHeight="1" outlineLevel="1">
+      <c r="A50" s="40"/>
       <c r="B50" s="28"/>
       <c r="C50" s="28"/>
       <c r="D50" s="10" t="s">
@@ -2358,8 +2321,8 @@
         <v>94</v>
       </c>
     </row>
-    <row r="51" spans="1:8" s="1" customFormat="1" ht="19.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="46"/>
+    <row r="51" spans="1:8" s="1" customFormat="1" ht="19.5" customHeight="1" outlineLevel="1">
+      <c r="A51" s="40"/>
       <c r="B51" s="35"/>
       <c r="C51" s="35"/>
       <c r="D51" s="10" t="s">
@@ -2376,8 +2339,8 @@
         <v>104</v>
       </c>
     </row>
-    <row r="52" spans="1:8" s="1" customFormat="1" ht="19.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="46"/>
+    <row r="52" spans="1:8" s="1" customFormat="1" ht="19.5" customHeight="1" outlineLevel="1">
+      <c r="A52" s="40"/>
       <c r="B52" s="35"/>
       <c r="C52" s="35"/>
       <c r="D52" s="10" t="s">
@@ -2394,8 +2357,8 @@
         <v>104</v>
       </c>
     </row>
-    <row r="53" spans="1:8" s="1" customFormat="1" ht="19.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="46"/>
+    <row r="53" spans="1:8" s="1" customFormat="1" ht="19.5" customHeight="1" outlineLevel="1">
+      <c r="A53" s="40"/>
       <c r="B53" s="35"/>
       <c r="C53" s="35"/>
       <c r="D53" s="10" t="s">
@@ -2412,8 +2375,8 @@
         <v>104</v>
       </c>
     </row>
-    <row r="54" spans="1:8" s="1" customFormat="1" ht="19.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="46"/>
+    <row r="54" spans="1:8" s="1" customFormat="1" ht="19.5" customHeight="1" outlineLevel="1">
+      <c r="A54" s="40"/>
       <c r="B54" s="35"/>
       <c r="C54" s="35"/>
       <c r="D54" s="10" t="s">
@@ -2430,8 +2393,8 @@
         <v>104</v>
       </c>
     </row>
-    <row r="55" spans="1:8" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="46"/>
+    <row r="55" spans="1:8" s="1" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A55" s="40"/>
       <c r="B55" s="28"/>
       <c r="C55" s="28"/>
       <c r="D55" s="10" t="s">
@@ -2448,8 +2411,8 @@
         <v>104</v>
       </c>
     </row>
-    <row r="56" spans="1:8" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="46"/>
+    <row r="56" spans="1:8" s="1" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A56" s="40"/>
       <c r="B56" s="28"/>
       <c r="C56" s="28"/>
       <c r="D56" s="10" t="s">
@@ -2466,8 +2429,8 @@
         <v>89</v>
       </c>
     </row>
-    <row r="57" spans="1:8" s="1" customFormat="1" ht="47.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="47"/>
+    <row r="57" spans="1:8" s="1" customFormat="1" ht="47.25" customHeight="1" outlineLevel="1">
+      <c r="A57" s="41"/>
       <c r="B57" s="29"/>
       <c r="C57" s="9"/>
       <c r="D57" s="10" t="s">
@@ -2484,7 +2447,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="58" spans="1:8" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:8" s="2" customFormat="1">
       <c r="A58" s="42" t="s">
         <v>34</v>
       </c>
@@ -2503,17 +2466,17 @@
       <c r="F58" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="G58" s="39" t="s">
+      <c r="G58" s="48" t="s">
         <v>16</v>
       </c>
       <c r="H58" s="7" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="59" spans="1:8" s="2" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="44"/>
+    <row r="59" spans="1:8" s="2" customFormat="1" outlineLevel="1">
+      <c r="A59" s="43"/>
       <c r="B59" s="31"/>
-      <c r="C59" s="44"/>
+      <c r="C59" s="43"/>
       <c r="D59" s="12" t="s">
         <v>53</v>
       </c>
@@ -2523,12 +2486,12 @@
       <c r="F59" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G59" s="41"/>
+      <c r="G59" s="49"/>
       <c r="H59" s="7" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="60" spans="1:8" s="2" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:8" s="2" customFormat="1" outlineLevel="1">
       <c r="A60" s="42" t="s">
         <v>105</v>
       </c>
@@ -2547,17 +2510,17 @@
       <c r="F60" s="33" t="s">
         <v>73</v>
       </c>
-      <c r="G60" s="39" t="s">
+      <c r="G60" s="48" t="s">
         <v>64</v>
       </c>
       <c r="H60" s="7" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="61" spans="1:8" s="2" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="43"/>
+    <row r="61" spans="1:8" s="2" customFormat="1" outlineLevel="1">
+      <c r="A61" s="51"/>
       <c r="B61" s="30"/>
-      <c r="C61" s="43"/>
+      <c r="C61" s="51"/>
       <c r="D61" s="33" t="s">
         <v>65</v>
       </c>
@@ -2567,15 +2530,15 @@
       <c r="F61" s="33" t="s">
         <v>68</v>
       </c>
-      <c r="G61" s="40"/>
+      <c r="G61" s="52"/>
       <c r="H61" s="7" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="62" spans="1:8" s="2" customFormat="1" ht="16.5" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A62" s="44"/>
+    <row r="62" spans="1:8" s="2" customFormat="1" outlineLevel="1">
+      <c r="A62" s="43"/>
       <c r="B62" s="31"/>
-      <c r="C62" s="44"/>
+      <c r="C62" s="43"/>
       <c r="D62" s="33" t="s">
         <v>62</v>
       </c>
@@ -2585,19 +2548,19 @@
       <c r="F62" s="33" t="s">
         <v>69</v>
       </c>
-      <c r="G62" s="41"/>
+      <c r="G62" s="49"/>
       <c r="H62" s="7" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="63" spans="1:8" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A63" s="51" t="s">
+    <row r="63" spans="1:8" s="3" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A63" s="44" t="s">
         <v>55</v>
       </c>
       <c r="B63" s="27" t="s">
         <v>163</v>
       </c>
-      <c r="C63" s="53" t="s">
+      <c r="C63" s="46" t="s">
         <v>21</v>
       </c>
       <c r="D63" s="16" t="s">
@@ -2609,17 +2572,17 @@
       <c r="F63" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="G63" s="55" t="s">
+      <c r="G63" s="50" t="s">
         <v>16</v>
       </c>
       <c r="H63" s="10" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="64" spans="1:8" s="3" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="56"/>
+    <row r="64" spans="1:8" s="3" customFormat="1" ht="14.25" customHeight="1" outlineLevel="1">
+      <c r="A64" s="53"/>
       <c r="B64" s="14"/>
-      <c r="C64" s="57"/>
+      <c r="C64" s="54"/>
       <c r="D64" s="16" t="s">
         <v>24</v>
       </c>
@@ -2629,15 +2592,15 @@
       <c r="F64" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="G64" s="55"/>
+      <c r="G64" s="50"/>
       <c r="H64" s="18" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="65" spans="1:8" s="3" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="56"/>
+    <row r="65" spans="1:8" s="3" customFormat="1" outlineLevel="1">
+      <c r="A65" s="53"/>
       <c r="B65" s="19"/>
-      <c r="C65" s="56"/>
+      <c r="C65" s="53"/>
       <c r="D65" s="20" t="s">
         <v>26</v>
       </c>
@@ -2647,12 +2610,12 @@
       <c r="F65" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="G65" s="55"/>
+      <c r="G65" s="50"/>
       <c r="H65" s="22" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="66" spans="1:8" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:8" s="3" customFormat="1" ht="14.25" customHeight="1">
       <c r="A66" s="25" t="s">
         <v>56</v>
       </c>
@@ -2678,14 +2641,14 @@
         <v>28</v>
       </c>
     </row>
-    <row r="67" spans="1:8" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="51" t="s">
+    <row r="67" spans="1:8" s="3" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A67" s="44" t="s">
         <v>57</v>
       </c>
       <c r="B67" s="34" t="s">
         <v>182</v>
       </c>
-      <c r="C67" s="53" t="s">
+      <c r="C67" s="46" t="s">
         <v>28</v>
       </c>
       <c r="D67" s="23" t="s">
@@ -2697,17 +2660,17 @@
       <c r="F67" s="16" t="s">
         <v>180</v>
       </c>
-      <c r="G67" s="51" t="s">
+      <c r="G67" s="44" t="s">
         <v>31</v>
       </c>
       <c r="H67" s="10" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="68" spans="1:8" s="3" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A68" s="52"/>
+    <row r="68" spans="1:8" s="3" customFormat="1" outlineLevel="1">
+      <c r="A68" s="45"/>
       <c r="B68" s="19"/>
-      <c r="C68" s="54"/>
+      <c r="C68" s="47"/>
       <c r="D68" s="20" t="s">
         <v>177</v>
       </c>
@@ -2717,19 +2680,19 @@
       <c r="F68" s="21" t="s">
         <v>181</v>
       </c>
-      <c r="G68" s="52"/>
+      <c r="G68" s="45"/>
       <c r="H68" s="22" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="69" spans="1:8" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A69" s="51" t="s">
+    <row r="69" spans="1:8" s="3" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A69" s="44" t="s">
         <v>111</v>
       </c>
       <c r="B69" s="34" t="s">
         <v>164</v>
       </c>
-      <c r="C69" s="53" t="s">
+      <c r="C69" s="46" t="s">
         <v>109</v>
       </c>
       <c r="D69" s="23" t="s">
@@ -2741,17 +2704,17 @@
       <c r="F69" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="G69" s="55" t="s">
+      <c r="G69" s="50" t="s">
         <v>112</v>
       </c>
       <c r="H69" s="10" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="70" spans="1:8" s="3" customFormat="1" ht="94.5" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A70" s="52"/>
+    <row r="70" spans="1:8" s="3" customFormat="1" ht="94.5" outlineLevel="1">
+      <c r="A70" s="45"/>
       <c r="B70" s="19"/>
-      <c r="C70" s="54"/>
+      <c r="C70" s="47"/>
       <c r="D70" s="20" t="s">
         <v>108</v>
       </c>
@@ -2761,12 +2724,12 @@
       <c r="F70" s="21" t="s">
         <v>107</v>
       </c>
-      <c r="G70" s="55"/>
+      <c r="G70" s="50"/>
       <c r="H70" s="22" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:8">
       <c r="A71" s="42" t="s">
         <v>175</v>
       </c>
@@ -2785,17 +2748,17 @@
       <c r="F71" s="37" t="s">
         <v>169</v>
       </c>
-      <c r="G71" s="39" t="s">
+      <c r="G71" s="48" t="s">
         <v>16</v>
       </c>
       <c r="H71" s="37" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="72" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A72" s="43"/>
+    <row r="72" spans="1:8" outlineLevel="1">
+      <c r="A72" s="51"/>
       <c r="B72" s="36"/>
-      <c r="C72" s="43"/>
+      <c r="C72" s="51"/>
       <c r="D72" s="37" t="s">
         <v>173</v>
       </c>
@@ -2805,15 +2768,15 @@
       <c r="F72" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="G72" s="40"/>
+      <c r="G72" s="52"/>
       <c r="H72" s="7" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="73" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="A73" s="44"/>
+    <row r="73" spans="1:8" outlineLevel="1">
+      <c r="A73" s="43"/>
       <c r="B73" s="29"/>
-      <c r="C73" s="44"/>
+      <c r="C73" s="43"/>
       <c r="D73" s="37" t="s">
         <v>174</v>
       </c>
@@ -2823,28 +2786,13 @@
       <c r="F73" s="37" t="s">
         <v>166</v>
       </c>
-      <c r="G73" s="41"/>
+      <c r="G73" s="49"/>
       <c r="H73" s="7" t="s">
         <v>165</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="A28:A37"/>
-    <mergeCell ref="A58:A59"/>
-    <mergeCell ref="A38:A47"/>
-    <mergeCell ref="A48:A57"/>
-    <mergeCell ref="G67:G68"/>
-    <mergeCell ref="C67:C68"/>
-    <mergeCell ref="A67:A68"/>
-    <mergeCell ref="C58:C59"/>
-    <mergeCell ref="G58:G59"/>
-    <mergeCell ref="G63:G65"/>
-    <mergeCell ref="A60:A62"/>
-    <mergeCell ref="C60:C62"/>
-    <mergeCell ref="G60:G62"/>
-    <mergeCell ref="A63:A65"/>
-    <mergeCell ref="C63:C65"/>
     <mergeCell ref="G71:G73"/>
     <mergeCell ref="C71:C73"/>
     <mergeCell ref="A71:A73"/>
@@ -2861,37 +2809,24 @@
     <mergeCell ref="G20:G27"/>
     <mergeCell ref="G38:G47"/>
     <mergeCell ref="C28:C37"/>
+    <mergeCell ref="A28:A37"/>
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="A38:A47"/>
+    <mergeCell ref="A48:A57"/>
+    <mergeCell ref="G67:G68"/>
+    <mergeCell ref="C67:C68"/>
+    <mergeCell ref="A67:A68"/>
+    <mergeCell ref="C58:C59"/>
+    <mergeCell ref="G58:G59"/>
+    <mergeCell ref="G63:G65"/>
+    <mergeCell ref="A60:A62"/>
+    <mergeCell ref="C60:C62"/>
+    <mergeCell ref="G60:G62"/>
+    <mergeCell ref="A63:A65"/>
+    <mergeCell ref="C63:C65"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
-  <phoneticPr fontId="5" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
-  <phoneticPr fontId="5" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
-</worksheet>
 </file>